--- a/data/income_statement/3digits/total/323_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/323_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>323-Manufacture of sports goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>323-Manufacture of sports goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>78473.26328</v>
@@ -980,13 +886,18 @@
         <v>395611.68173</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>383439.10077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>385065.18585</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>385253.731</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>67380.96412999999</v>
@@ -1019,19 +930,24 @@
         <v>334535.37213</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>300633.06576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>302259.15084</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>307982.402</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>10099.28092</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>9821.62765</v>
+        <v>9821.627649999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>16784.68237</v>
@@ -1046,7 +962,7 @@
         <v>28874.49595</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>34495.28361999999</v>
+        <v>34495.28362</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>43031.21712</v>
@@ -1055,16 +971,21 @@
         <v>44585.53667</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>55338.71554999999</v>
+        <v>55338.71555000001</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>73085.74288999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>71234.117</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>993.01823</v>
@@ -1097,13 +1018,18 @@
         <v>5737.59405</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9720.29212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9720.292120000002</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6037.212</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>462.15291</v>
@@ -1118,7 +1044,7 @@
         <v>978.7424999999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>840.66061</v>
+        <v>840.6606100000001</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>1691.04924</v>
@@ -1136,13 +1062,18 @@
         <v>1780.46498</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4844.86267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4845.88767</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9660.1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>330.51464</v>
@@ -1157,13 +1088,13 @@
         <v>708.2459399999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>471.3631899999999</v>
+        <v>471.36319</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1434.36852</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>781.75783</v>
+        <v>781.7578300000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>1756.77845</v>
@@ -1175,13 +1106,18 @@
         <v>1209.44776</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4525.2929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4526.317899999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5069.535</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>103.57511</v>
@@ -1193,7 +1129,7 @@
         <v>180.96171</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>268.4837199999999</v>
+        <v>268.48372</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>369.29742</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>312.76433</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>3651.347</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>28.06316</v>
@@ -1247,7 +1188,7 @@
         <v>12.29782</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>77.21209999999999</v>
+        <v>77.21210000000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>184.74569</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>6.805440000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>939.218</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>78011.11037000001</v>
@@ -1292,13 +1238,18 @@
         <v>393831.21675</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>378594.2381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>380219.29818</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>375593.631</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>62995.94035</v>
@@ -1331,13 +1282,18 @@
         <v>310133.63134</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>298182.09653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>299466.6275999999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>301217.855</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>42561.68951999999</v>
@@ -1346,7 +1302,7 @@
         <v>50753.59913</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>77078.73146</v>
+        <v>77078.73146000001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>81055.4667</v>
@@ -1370,13 +1326,18 @@
         <v>238766.1212</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>231626.30157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>231937.80707</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>239311.816</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>18295.12038</v>
@@ -1403,19 +1364,24 @@
         <v>35768.52396</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>48971.32911</v>
+        <v>48971.32911000001</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>65601.22371999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>61186.46610000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>62159.49167</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>57729.519</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2127.61517</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>5102.53793</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>3866.457</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11.51528</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>266.79093</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>310.063</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>15015.17002</v>
@@ -1514,25 +1490,30 @@
         <v>33233.17028</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>43168.95418000001</v>
+        <v>43168.95418</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>46390.23099</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>63682.91368</v>
+        <v>63682.91368000001</v>
       </c>
       <c r="L19" s="47" t="n">
         <v>83697.58541</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>80412.14156999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>80752.67058000001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>74375.776</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>11266.4305</v>
@@ -1562,16 +1543,21 @@
         <v>45768.15776</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>51990.63186</v>
+        <v>51991.46612</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>52839.80647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>53363.28304</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>49683.134</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>216.77466</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>373.50885</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>40.398</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3564.73234</v>
@@ -1622,7 +1613,7 @@
         <v>5367.13058</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4978.23813</v>
+        <v>4978.238130000001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>6107.8366</v>
@@ -1631,7 +1622,7 @@
         <v>7008.42966</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8047.36219</v>
+        <v>8047.362190000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>9537.369949999998</v>
@@ -1643,16 +1634,21 @@
         <v>12738.62503</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>13935.77367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13940.38471</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>13174.698</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>7484.9235</v>
+        <v>7484.923500000001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>8081.767529999999</v>
@@ -1679,22 +1675,27 @@
         <v>32316.53093</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>38779.25320000001</v>
+        <v>38780.08746</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>38530.52395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>39049.38948000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>36468.038</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3748.739520000001</v>
+        <v>3748.73952</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4474.9702</v>
+        <v>4474.970199999999</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>6816.04232</v>
@@ -1718,16 +1719,21 @@
         <v>17914.75592</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>31706.95355</v>
+        <v>31706.11929</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>27572.3351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>27389.38754</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>24692.642</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1039.26988</v>
@@ -1754,19 +1760,24 @@
         <v>3128.11321</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4300.6128</v>
+        <v>4300.612800000001</v>
       </c>
       <c r="L25" s="47" t="n">
         <v>9168.35117</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11123.81664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>11130.26384</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11111.388</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>28.92698</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,23 +1856,28 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>155.31745</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>294.3206700000001</v>
+        <v>294.32067</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>88.53921000000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>76.55476</v>
+        <v>76.55476000000002</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>72.65020999999999</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>3934.15902</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>2713.791</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>14.78135</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>2.00555</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2.11358</v>
@@ -1970,7 +2006,7 @@
         <v>20.76839</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.3239899999999999</v>
+        <v>0.32399</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>4.68809</v>
@@ -1996,20 +2032,25 @@
       <c r="M31" s="48" t="n">
         <v>8.65447</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>375.754</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>788.71341</v>
+        <v>788.7134100000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1006.8187</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>951.1000799999999</v>
+        <v>951.10008</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>617.0182900000001</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>4808.44461</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>6907.873</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>6.261439999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>49.41711</v>
@@ -2144,25 +2200,30 @@
         <v>242.10986</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>693.2953299999999</v>
+        <v>693.29533</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>704.0164600000001</v>
+        <v>704.0164599999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2364.29155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2370.73875</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>970.76</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>479.26849</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>795.1383300000001</v>
+        <v>795.13833</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1432.84987</v>
@@ -2189,13 +2250,18 @@
         <v>6938.569699999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8568.241530000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8568.241529999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9353.031000000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>50.67532</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>9.627000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>77.46299999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>41.25935</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>606.1098900000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>350.80124</v>
@@ -2324,7 +2405,7 @@
         <v>1100.99467</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>581.4267100000001</v>
+        <v>581.42671</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>1126.27776</v>
@@ -2345,13 +2426,18 @@
         <v>6304.622939999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7342.893859999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7342.89386</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8832.887000000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>36.53258</v>
@@ -2453,7 +2549,7 @@
         <v>220.39649</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>93.15971</v>
+        <v>93.15970999999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>102.88172</v>
@@ -2462,13 +2558,18 @@
         <v>106.24175</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>609.61078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>609.6107799999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>442.681</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2868.55213</v>
@@ -2489,7 +2590,7 @@
         <v>4547.76572</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7534.150040000001</v>
+        <v>7534.15004</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>9835.41653</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>18290.71092</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>17651.716</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2130.57333</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>16618.79983</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>13671.123</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>737.9788000000001</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1671.91109</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3980.593</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1440.18878</v>
@@ -2597,7 +2713,7 @@
         <v>3085.03858</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5271.536880000001</v>
+        <v>5271.53688</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>8454.276230000001</v>
@@ -2609,22 +2725,27 @@
         <v>9971.502699999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4428.406869999999</v>
+        <v>4428.40687</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4889.871679999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>17683.22929</v>
+        <v>17682.39503</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11837.19929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>11660.69893</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8799.282999999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>447.59283</v>
@@ -2633,7 +2754,7 @@
         <v>831.86163</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>550.8010800000001</v>
+        <v>550.80108</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>1128.46545</v>
@@ -2659,11 +2780,16 @@
       <c r="M48" s="47" t="n">
         <v>2243.24177</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>5010.026</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2.04914</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>447.59283</v>
@@ -2711,7 +2842,7 @@
         <v>829.0747299999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>542.9494800000001</v>
+        <v>542.94948</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>1022.43992</v>
@@ -2737,17 +2868,22 @@
       <c r="M50" s="48" t="n">
         <v>2241.19263</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>5010.026</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>484.76653</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>586.6476399999999</v>
+        <v>586.64764</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>4570.10558</v>
@@ -2771,22 +2907,27 @@
         <v>1125.39554</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8551.070609999999</v>
+        <v>8551.08525</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1829.9612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1844.26727</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2717.35</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.10918</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8.516699999999998</v>
+        <v>8.5167</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>31.02407</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3.06742</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>49.995</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>40.58924</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>30.74064</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>619.36</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>435.06811</v>
@@ -2888,16 +3039,21 @@
         <v>1066.48878</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7189.31749</v>
+        <v>7189.332130000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1796.15314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1810.45921</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2047.995</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1403.01508</v>
@@ -2909,7 +3065,7 @@
         <v>-934.2659199999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4845.245559999999</v>
+        <v>4845.24556</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>8063.174029999999</v>
@@ -2921,22 +3077,27 @@
         <v>11047.03834</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-8579.13997</v>
+        <v>-8579.139969999998</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>5568.73667</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>11923.02486</v>
+        <v>11922.17596</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>12250.47986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>12059.67343</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>11091.959</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>569.0208400000001</v>
@@ -2945,7 +3106,7 @@
         <v>661.22622</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>939.0215499999999</v>
+        <v>939.02155</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>1184.87879</v>
@@ -2969,13 +3130,18 @@
         <v>4208.980509999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3482.35054</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3697.77544</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1632.231</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>833.99424</v>
@@ -2987,7 +3153,7 @@
         <v>-1873.28747</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3660.36677</v>
+        <v>3660.366770000001</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>6157.78969</v>
@@ -3005,13 +3171,16 @@
         <v>3121.93803</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7714.04435</v>
+        <v>7713.195449999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8768.12932</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8361.897989999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9459.727999999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>88</v>
@@ -3059,13 +3231,16 @@
         <v>84</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>96</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>